--- a/58.xlsx
+++ b/58.xlsx
@@ -12,16 +12,18 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="二级建造师">Sheet1!$H$2:$H$6</definedName>
-    <definedName name="一级建造师">Sheet1!$G$2:$G$7</definedName>
-    <definedName name="中级职称证书">Sheet1!$I$2:$I$11</definedName>
+    <definedName name="电气工程师">Sheet1!$J$2:$J$1048576</definedName>
+    <definedName name="二级建造师">Sheet1!$H$2:$H$1048576</definedName>
+    <definedName name="公用设备工程师">Sheet1!$K$2:$K$1048576</definedName>
+    <definedName name="一级建造师">Sheet1!$G$2:$G$1048576</definedName>
+    <definedName name="中级职称证书">Sheet1!$I$2:$I$1048576</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>帖子标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,82 +85,6 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>诚聘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级建造师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公路工程两年一次付款</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不压证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两年一付 寻3名转注一级机电 挂靠资质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,7 +95,245 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.5W一年，一级市政 兼职挂证不考B证单位直签</t>
+    <r>
+      <t>诚聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级建造师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建筑工程两年一次付款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不压证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两年一付 寻3名转注二级水利水电 挂靠资质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24W/3年，注册动力工程师 兼职挂证，单位直签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>诚聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册给暖通空调工程师三年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>18W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一次付款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书地区没有要求，可以不用网查，但是要提供三证一表原件。如果可以网查的，评审表可以提供复印件。见证付款，单位付款快，有意向的请联系我：189-02846703或Q：3002882363</t>
+  </si>
+  <si>
+    <t>证书地区没有要求，见证付款。高于市场价，只挂证可长期签约，证书用于资质挂证，不用出场。验证通过即可打款到你的账号，不存在拖款问题。有意向的请联系梁经理：189-02846-703 或Q：3002882363</t>
+  </si>
+  <si>
+    <t>诚信，付款准时，多次合作的老单位，款项请放心。收到证书验证没问题可以备案成功就付款。长期需要各类专业的职称证，要是朋友有其他证书需要挂靠的也可以联系我：189-02846-703 或Q：3002882363</t>
+  </si>
+  <si>
+    <t>诚聘化工中级工程师证书价格高，付款快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>湖北</t>
+  </si>
+  <si>
+    <t>一级建造师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级建造师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政公用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公路工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机电工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电水利工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级职称证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>园林设计/园艺师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑工程/土建/房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工民建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖通空调/热处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给排水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政公用工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿业工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水利水电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿业工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证付款寻给排水中级工程师证书 高于市场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,6 +341,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>电气工程师</t>
+  </si>
+  <si>
+    <t>电气工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供配电</t>
+  </si>
+  <si>
+    <t>供配电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发输变电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公用设备工程师</t>
+  </si>
+  <si>
+    <t>公用设备工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给水排水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发输变电</t>
+  </si>
+  <si>
+    <t>暖通空调</t>
+  </si>
+  <si>
+    <t>暖通空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口与航道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信与广电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁路工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民航机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公路工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级建造师</t>
+  </si>
+  <si>
+    <t>机电工程</t>
+  </si>
+  <si>
+    <t>建筑工程</t>
+  </si>
+  <si>
+    <t>二级建造师</t>
+  </si>
+  <si>
+    <t>水电水利工程</t>
+  </si>
+  <si>
+    <t>动力</t>
+  </si>
+  <si>
+    <t>给水排水</t>
+  </si>
+  <si>
+    <t>中级职称证书</t>
+  </si>
+  <si>
+    <t>给排水</t>
+  </si>
+  <si>
+    <t>化工</t>
+  </si>
+  <si>
+    <t>5W一年寻一级水利 兼职挂证不考B证单位直签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水利水电</t>
+  </si>
+  <si>
     <r>
       <t>诚聘</t>
     </r>
@@ -216,7 +480,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>建筑工程两年一次付款</t>
+      <t>铁路工程</t>
     </r>
     <r>
       <rPr>
@@ -235,6 +499,25 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>两年一次付款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>不压证</t>
     </r>
     <r>
@@ -249,12 +532,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>两年一付 寻3名转注二级水利水电 挂靠资质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24W/3年，注册动力工程师 兼职挂证，单位直签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>铁路工程</t>
+  </si>
+  <si>
+    <t>两年一付 寻3名转注一级港航 挂靠资质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口与航道</t>
   </si>
   <si>
     <r>
@@ -277,7 +562,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>28W</t>
+      <t>30W</t>
     </r>
     <r>
       <rPr>
@@ -320,6 +605,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>15W/3年，注册电气工程师供配电，单位直签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
     <r>
       <t>诚聘</t>
     </r>
@@ -331,16 +626,35 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>注册给暖通空调工程师三年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>18W</t>
+      <t>注册电气工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发输变电，三年29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>W</t>
     </r>
     <r>
       <rPr>
@@ -364,235 +678,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山西</t>
-  </si>
-  <si>
-    <t>14W/3年，注册电气工程师供配电，单位直签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>诚聘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注册电气工程师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发输变电，三年27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一次付款</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>河北</t>
-  </si>
-  <si>
-    <t>证书地区没有要求，可以不用网查，但是要提供三证一表原件。如果可以网查的，评审表可以提供复印件。见证付款，单位付款快，有意向的请联系我：189-02846703或Q：3002882363</t>
-  </si>
-  <si>
-    <t>证书地区没有要求，见证付款。高于市场价，只挂证可长期签约，证书用于资质挂证，不用出场。验证通过即可打款到你的账号，不存在拖款问题。有意向的请联系梁经理：189-02846-703 或Q：3002882363</t>
-  </si>
-  <si>
-    <t>诚信，付款准时，多次合作的老单位，款项请放心。收到证书验证没问题可以备案成功就付款。长期需要各类专业的职称证，要是朋友有其他证书需要挂靠的也可以联系我：189-02846-703 或Q：3002882363</t>
-  </si>
-  <si>
-    <t>诚聘化工中级工程师证书价格高，付款快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辽宁</t>
-  </si>
-  <si>
-    <t>陕西</t>
-  </si>
-  <si>
-    <t>湖北</t>
-  </si>
-  <si>
-    <t>一级建造师</t>
-  </si>
-  <si>
-    <t>一级建造师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级建造师</t>
-  </si>
-  <si>
-    <t>二级建造师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市政公用</t>
-  </si>
-  <si>
-    <t>市政公用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公路工程</t>
-  </si>
-  <si>
-    <t>公路工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机电工程</t>
-  </si>
-  <si>
-    <t>机电工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑工程</t>
-  </si>
-  <si>
-    <t>建筑工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电水利工程</t>
-  </si>
-  <si>
-    <t>水电水利工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级职称证书</t>
-  </si>
-  <si>
-    <t>中级职称证书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>园林设计/园艺师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑工程/土建/房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工民建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暖通空调/热处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构</t>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>招暖通中级工程师证书兼职 能提供相关资料即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暖通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给排水</t>
-  </si>
-  <si>
-    <t>给排水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化工</t>
-  </si>
-  <si>
-    <t>化工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会计</t>
-  </si>
-  <si>
-    <t>会计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市政公用工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿业工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水利水电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿业工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证付款寻给排水中级工程师证书 高于市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招会计中级工程师证书兼职 能提供相关资料即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -987,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1004,9 +1097,11 @@
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="25.375" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.5" customHeight="1">
+    <row r="1" spans="1:11" ht="34.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1017,21 +1112,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="99" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="99" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1040,24 +1141,30 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="88.5" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="88.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1066,50 +1173,59 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="62.25" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="62.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="39" customHeight="1">
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1118,24 +1234,24 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="103.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="103.5">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -1144,47 +1260,50 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="114.75">
+    </row>
+    <row r="7" spans="1:11" ht="114.75">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="103.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="103.5">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -1193,18 +1312,21 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="69">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="69">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -1213,124 +1335,133 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="103.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="103.5">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
       <c r="I10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="69">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="69">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="103.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="103.5">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="82.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="82.5">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="82.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="82.5">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="82.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="82.5">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
@@ -1353,7 +1484,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D96">
       <formula1>"一级建造师+建筑工程,一级建造师+机电工程,一级建造师+市政公用,一级建造师+水利水电,一级建造师+公路工程,一级建造师+矿业工程,一级建造师+港口与航道,一级建造师+通信与广电,一级建造师+铁路工程"</formula1>
     </dataValidation>
@@ -1370,8 +1501,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>INDIRECT($E$2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D23">
       <formula1>$G$1:$I$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15">
+      <formula1>$G$1:$K$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
